--- a/Harvest/Harvest_temperate-2a-3b.xlsx
+++ b/Harvest/Harvest_temperate-2a-3b.xlsx
@@ -5,19 +5,18 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JaneProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14183\OneDrive\Documents\GitHub\Landis-II_ECCC\Harvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54E4F57-A836-4903-AE68-AA0CB9D98F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D40C3E-D6F3-476B-A5A1-668AF7F85EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53880" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forestarea" sheetId="11" r:id="rId1"/>
     <sheet name="Harvested per forest type" sheetId="6" r:id="rId2"/>
     <sheet name="treatments groups" sheetId="10" r:id="rId3"/>
     <sheet name="AAC" sheetId="12" r:id="rId4"/>
-    <sheet name="management_BAU" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="148">
   <si>
     <t>Grands types de forêt *</t>
   </si>
@@ -260,120 +259,6 @@
     <t>Coupes partielles (ha/an)</t>
   </si>
   <si>
-    <t>ABIE.BAL</t>
-  </si>
-  <si>
-    <t>PINU.BAN</t>
-  </si>
-  <si>
-    <t>THUJ.SPP.ALL</t>
-  </si>
-  <si>
-    <t>TSUG.CAN</t>
-  </si>
-  <si>
-    <t>BETU.PAP</t>
-  </si>
-  <si>
-    <t>POPU.TRE</t>
-  </si>
-  <si>
-    <t>ACER.RUB</t>
-  </si>
-  <si>
-    <t>Total (ha)</t>
-  </si>
-  <si>
-    <t>PICE.MAR, ABIE.BAL</t>
-  </si>
-  <si>
-    <t>PINU.STR, PINU.RES</t>
-  </si>
-  <si>
-    <t>PICE.GLA, POPU.TRE</t>
-  </si>
-  <si>
-    <t>ACER.SAH, FAGU.GRA, TSUG.CAN</t>
-  </si>
-  <si>
-    <t>Forest Type</t>
-  </si>
-  <si>
-    <t>Clearcut (ha)</t>
-  </si>
-  <si>
-    <t>Partial cut (ha)</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>clear cut based management</t>
-  </si>
-  <si>
-    <t>Mixed PC and CC</t>
-  </si>
-  <si>
-    <t>Partial cutting based management</t>
-  </si>
-  <si>
-    <t>Spruce stands</t>
-  </si>
-  <si>
-    <t>Fir stands</t>
-  </si>
-  <si>
-    <t>Jack pine stands</t>
-  </si>
-  <si>
-    <t>White pine stands</t>
-  </si>
-  <si>
-    <t>Cedar stands</t>
-  </si>
-  <si>
-    <t>Hemlock stands</t>
-  </si>
-  <si>
-    <t>Conifer–hardwood stands</t>
-  </si>
-  <si>
-    <t>White birch–conifer stands</t>
-  </si>
-  <si>
-    <t>Poplar–conifer stands</t>
-  </si>
-  <si>
-    <t>Tolerant hardwood–conifer stands</t>
-  </si>
-  <si>
-    <t>White birch stands</t>
-  </si>
-  <si>
-    <t>Poplar stands</t>
-  </si>
-  <si>
-    <t>Red maple stands</t>
-  </si>
-  <si>
-    <t>Tolerant hardwood stands</t>
-  </si>
-  <si>
-    <t>ABIE.BAL, ACER.RUB</t>
-  </si>
-  <si>
-    <t>BETU.PAP, PICE.RUB, PINU.BAN</t>
-  </si>
-  <si>
-    <t>ACER.SAH, FAGU.GRA, PICE.GLA</t>
-  </si>
-  <si>
-    <t>French terms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Associated Species  </t>
-  </si>
-  <si>
     <t>Total des coupes totales</t>
   </si>
   <si>
@@ -480,9 +365,6 @@
   </si>
   <si>
     <t>*this rate will be calibrated until we reach the same AAC (see sheet ACC)</t>
-  </si>
-  <si>
-    <t>Managed Area per treatment (%)</t>
   </si>
   <si>
     <t>39%</t>
@@ -740,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -822,47 +704,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -894,9 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
@@ -905,7 +749,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -951,6 +794,7 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -981,26 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1288,148 +1112,148 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" style="23" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" s="28" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="M1" s="29" t="s">
-        <v>129</v>
+      <c r="E1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>91</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2" s="31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="29">
         <v>75511.182994000003</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="29">
         <v>63760.524324999998</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <f>C2/B2</f>
         <v>0.84438518636459858</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="31">
         <f>E$8*6.25</f>
         <v>2184668.75</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="32">
         <f>C2/E2</f>
         <v>2.9185442564233135E-2</v>
       </c>
-      <c r="K2" s="28">
+      <c r="K2" s="26">
         <v>230250</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="33">
         <f>SUM(C2:C6)</f>
         <v>1020059.4307200001</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="33">
         <f>E2-L2-K2</f>
         <v>934359.31927999994</v>
       </c>
-      <c r="N2" s="36">
+      <c r="N2" s="34">
         <f>M2/E2</f>
         <v>0.42768924088834975</v>
       </c>
       <c r="O2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="31">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="29">
         <v>170327.54854600001</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="29">
         <v>156306.16079699999</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <f t="shared" ref="D3:D6" si="0">C3/B3</f>
         <v>0.91767985937275853</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="31">
         <f t="shared" ref="E3:E6" si="1">E$8*6.25</f>
         <v>2184668.75</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="32">
         <f t="shared" ref="F3:F6" si="2">C3/E3</f>
         <v>7.1546846997742788E-2</v>
       </c>
-      <c r="K3" s="32">
+      <c r="K3" s="30">
         <f>K2/E2</f>
         <v>0.10539355222616702</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <f>L2/E2</f>
         <v>0.46691720688548322</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="30">
         <f>M2/E2</f>
         <v>0.42768924088834975</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="31">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="29">
         <v>1111155.802159</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="29">
         <v>349637.16025800002</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="30">
         <f t="shared" si="0"/>
         <v>0.31466078796389074</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="31">
         <f t="shared" si="1"/>
         <v>2184668.75</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="32">
         <f t="shared" si="2"/>
         <v>0.16004126953250922</v>
       </c>
@@ -1437,140 +1261,140 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
-      </c>
-      <c r="P4" s="46">
+        <v>142</v>
+      </c>
+      <c r="P4" s="44">
         <f>AAC!N30</f>
         <v>427662317.06053007</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="31">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="29">
         <v>139049.017073</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>127728.925001</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="30">
         <f t="shared" si="0"/>
         <v>0.91858919746223733</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="31">
         <f t="shared" si="1"/>
         <v>2184668.75</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="32">
         <f t="shared" si="2"/>
         <v>5.8466037471813517E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>173</v>
-      </c>
-      <c r="P5" s="19">
+        <v>134</v>
+      </c>
+      <c r="P5" s="18">
         <f>L2</f>
         <v>1020059.4307200001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" s="31">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="29">
         <v>405805.89945899998</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>322626.66033899999</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>0.79502703329130908</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="31">
         <f t="shared" si="1"/>
         <v>2184668.75</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="32">
         <f t="shared" si="2"/>
         <v>0.14767761031918455</v>
       </c>
       <c r="O6" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="P6">
         <f>P7*P4/P5</f>
         <v>391732343.64230824</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C7" s="37"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="35"/>
       <c r="O7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P7" s="19">
+        <v>135</v>
+      </c>
+      <c r="P7" s="18">
         <f>M2</f>
         <v>934359.31927999994</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="C8" s="38"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="36"/>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="E8">
         <v>349547</v>
       </c>
       <c r="O8" t="s">
-        <v>175</v>
-      </c>
-      <c r="P8" s="46">
+        <v>136</v>
+      </c>
+      <c r="P8" s="44">
         <f>(P4+P6)/1000</f>
         <v>819394.66070283833</v>
       </c>
       <c r="Q8" t="s">
-        <v>183</v>
-      </c>
-      <c r="R8" s="49">
+        <v>144</v>
+      </c>
+      <c r="R8" s="47">
         <f>P8/1000000</f>
         <v>0.81939466070283828</v>
       </c>
       <c r="S8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="38"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="36"/>
       <c r="O9" t="s">
-        <v>165</v>
-      </c>
-      <c r="P9" s="36">
+        <v>126</v>
+      </c>
+      <c r="P9" s="34">
         <f>P8/E2</f>
         <v>0.37506585870413461</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="39"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="38"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="36"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="36"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1585,94 +1409,94 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="11" max="11" width="25.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E1" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="56" t="s">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="56"/>
       <c r="K1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="54"/>
+    <row r="2" spans="1:16" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="53"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20" t="s">
+      <c r="K2" s="19"/>
+      <c r="L2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="19" t="s">
         <v>62</v>
       </c>
       <c r="N2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" s="20" t="s">
+      <c r="O2" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="20" t="s">
+      <c r="P2" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="55"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <f>(F4*$C$4+F23*$C$5+F40*$C$6+F57*$C$7+F74*$C$8)</f>
         <v>338.87998051215959</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <f>(G4*$C$4+G23*$C$5+G40*$C$6+G57*$C$7+G74*$C$8)</f>
         <v>104.63645015837591</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <f>SUM(L3:M3)</f>
         <v>443.5164306705355</v>
       </c>
-      <c r="O3" s="18">
+      <c r="O3" s="17">
         <f>L3/N3</f>
         <v>0.76407536920294006</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="17">
         <f>M3/N3</f>
         <v>0.23592463079705991</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0.84438518636459858</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -1684,36 +1508,36 @@
       <c r="G4" s="12">
         <v>0</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="21">
+      <c r="L4" s="20">
         <f t="shared" ref="L4:M16" si="0">(F5*$C$4+F24*$C$5+F41*$C$6+F58*$C$7+F75*$C$8)</f>
         <v>115.37943173666642</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <f t="shared" si="0"/>
         <v>45.883992968637926</v>
       </c>
-      <c r="N4" s="19">
+      <c r="N4" s="18">
         <f t="shared" ref="N4:N18" si="1">SUM(L4:M4)</f>
         <v>161.26342470530435</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="17">
         <f t="shared" ref="O4:O16" si="2">L4/N4</f>
         <v>0.71547179372826075</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <f t="shared" ref="P4:P16" si="3">M4/N4</f>
         <v>0.28452820627173925</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13"/>
       <c r="B5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>0.91767985937275853</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -1725,36 +1549,36 @@
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="K5" s="20" t="s">
+      <c r="K5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>15.900540665826181</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <f t="shared" si="0"/>
         <v>23.850810998739274</v>
       </c>
-      <c r="N5" s="19">
+      <c r="N5" s="18">
         <f t="shared" si="1"/>
         <v>39.751351664565455</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="17">
         <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="17">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
+    <row r="6" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="16"/>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>0.31466078796389074</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -1766,36 +1590,36 @@
       <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M6" s="21">
+      <c r="M6" s="20">
         <f t="shared" si="0"/>
         <v>207.67711659814637</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="18">
         <f t="shared" si="1"/>
         <v>207.67711659814637</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>0.91858919746223733</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -1807,36 +1631,36 @@
       <c r="G7" s="12">
         <v>10</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M7" s="21">
+      <c r="M7" s="20">
         <f t="shared" si="0"/>
         <v>33.582273915473607</v>
       </c>
-      <c r="N7" s="19">
+      <c r="N7" s="18">
         <f t="shared" si="1"/>
         <v>33.582273915473607</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
+    <row r="8" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
       <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>0.79502703329130908</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -1848,31 +1672,31 @@
       <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="20">
         <f t="shared" si="0"/>
         <v>20.086301018309943</v>
       </c>
-      <c r="N8" s="19">
+      <c r="N8" s="18">
         <f t="shared" si="1"/>
         <v>20.086301018309943</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P8" s="18">
+      <c r="P8" s="17">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1882,31 +1706,31 @@
       <c r="G9" s="12">
         <v>10</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L9" s="21">
+      <c r="L9" s="20">
         <f t="shared" si="0"/>
         <v>399.78953339173069</v>
       </c>
-      <c r="M9" s="21">
+      <c r="M9" s="20">
         <f t="shared" si="0"/>
         <v>31.935646812677227</v>
       </c>
-      <c r="N9" s="19">
+      <c r="N9" s="18">
         <f t="shared" si="1"/>
         <v>431.72518020440793</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="17">
         <f t="shared" si="2"/>
         <v>0.92602783373080821</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="17">
         <f t="shared" si="3"/>
         <v>7.397216626919173E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1916,31 +1740,31 @@
       <c r="G10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="21">
+      <c r="L10" s="20">
         <f t="shared" si="0"/>
         <v>579.13434025407241</v>
       </c>
-      <c r="M10" s="21">
+      <c r="M10" s="20">
         <f t="shared" si="0"/>
         <v>5.3492333953861424</v>
       </c>
-      <c r="N10" s="19">
+      <c r="N10" s="18">
         <f t="shared" si="1"/>
         <v>584.48357364945855</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="17">
         <f t="shared" si="2"/>
         <v>0.99084793202658195</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="17">
         <f t="shared" si="3"/>
         <v>9.1520679734180543E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1950,31 +1774,31 @@
       <c r="G11" s="12">
         <v>0</v>
       </c>
-      <c r="K11" s="20" t="s">
+      <c r="K11" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <f t="shared" si="0"/>
         <v>144.05425851893796</v>
       </c>
-      <c r="M11" s="21">
+      <c r="M11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N11" s="19">
+      <c r="N11" s="18">
         <f t="shared" si="1"/>
         <v>144.05425851893796</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1984,31 +1808,31 @@
       <c r="G12" s="12">
         <v>0</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="21">
+      <c r="L12" s="20">
         <f t="shared" si="0"/>
         <v>27.548582542972333</v>
       </c>
-      <c r="M12" s="21">
+      <c r="M12" s="20">
         <f t="shared" si="0"/>
         <v>1102.0993240404155</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N12" s="18">
         <f t="shared" si="1"/>
         <v>1129.6479065833878</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="17">
         <f t="shared" si="2"/>
         <v>2.4386875222291899E-2</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <f t="shared" si="3"/>
         <v>0.97561312477770812</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
@@ -2018,31 +1842,31 @@
       <c r="G13" s="12">
         <v>120</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <f t="shared" si="0"/>
         <v>190.80648798991419</v>
       </c>
-      <c r="M13" s="21">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="19">
+      <c r="N13" s="18">
         <f t="shared" si="1"/>
         <v>190.80648798991419</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
@@ -2052,31 +1876,31 @@
       <c r="G14" s="12">
         <v>0</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <f t="shared" si="0"/>
         <v>586.20403126213387</v>
       </c>
-      <c r="M14" s="21">
+      <c r="M14" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N14" s="19">
+      <c r="N14" s="18">
         <f t="shared" si="1"/>
         <v>586.20403126213387</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="17">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
@@ -2086,31 +1910,31 @@
       <c r="G15" s="12">
         <v>0</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <f t="shared" si="0"/>
         <v>18.371783949244747</v>
       </c>
-      <c r="M15" s="21">
+      <c r="M15" s="20">
         <f t="shared" si="0"/>
         <v>8.7585126516098768</v>
       </c>
-      <c r="N15" s="19">
+      <c r="N15" s="18">
         <f t="shared" si="1"/>
         <v>27.130296600854624</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="17">
         <f t="shared" si="2"/>
         <v>0.67716856249430102</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <f t="shared" si="3"/>
         <v>0.32283143750569898</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
@@ -2120,31 +1944,31 @@
       <c r="G16" s="12">
         <v>10</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <f t="shared" si="0"/>
         <v>33.983365100100201</v>
       </c>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <f t="shared" si="0"/>
         <v>4372.4555266045045</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <f t="shared" si="1"/>
         <v>4406.4388917046044</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="17">
         <f t="shared" si="2"/>
         <v>7.71220614543776E-3</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="17">
         <f t="shared" si="3"/>
         <v>0.99228779385456234</v>
       </c>
     </row>
-    <row r="17" spans="5:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:14" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E17" s="4" t="s">
         <v>20</v>
       </c>
@@ -2157,56 +1981,56 @@
       <c r="K17" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <f>SUM(L3:L16)</f>
         <v>2450.0523359237586</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <f>SUM(M3:M16)</f>
         <v>5956.3151891622765</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <f t="shared" si="1"/>
         <v>8406.367525086036</v>
       </c>
     </row>
-    <row r="18" spans="5:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="15" t="s">
+    <row r="18" spans="5:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F18" s="14">
         <f>SUM(F4:F17)</f>
         <v>80</v>
       </c>
-      <c r="G18" s="15">
+      <c r="G18" s="14">
         <f>SUM(G4:G17)</f>
         <v>790</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="22">
         <f>L17/N17</f>
         <v>0.29145196526470968</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="22">
         <f>M17/N17</f>
         <v>0.70854803473529027</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52" t="s">
+    <row r="19" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="53"/>
-    </row>
-    <row r="21" spans="5:14" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E21" s="50"/>
+      <c r="G20" s="52"/>
+    </row>
+    <row r="21" spans="5:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="49"/>
       <c r="F21" s="6" t="s">
         <v>2</v>
       </c>
@@ -2214,8 +2038,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="51"/>
+    <row r="22" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E22" s="50"/>
       <c r="F22" s="7" t="s">
         <v>5</v>
       </c>
@@ -2223,7 +2047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="8" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2058,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E24" s="8" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E25" s="8" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E26" s="8" t="s">
         <v>10</v>
       </c>
@@ -2267,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E27" s="8" t="s">
         <v>11</v>
       </c>
@@ -2278,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E28" s="8" t="s">
         <v>12</v>
       </c>
@@ -2289,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="8" t="s">
         <v>13</v>
       </c>
@@ -2300,7 +2124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2311,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E31" s="8" t="s">
         <v>15</v>
       </c>
@@ -2322,7 +2146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="8" t="s">
         <v>16</v>
       </c>
@@ -2333,7 +2157,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E33" s="8" t="s">
         <v>17</v>
       </c>
@@ -2344,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E34" s="8" t="s">
         <v>18</v>
       </c>
@@ -2355,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E35" s="8" t="s">
         <v>19</v>
       </c>
@@ -2366,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E36" s="8" t="s">
         <v>20</v>
       </c>
@@ -2377,199 +2201,199 @@
         <v>840</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="15" t="s">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="14">
         <f>SUM(F23:F36)</f>
         <v>780</v>
       </c>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <f>SUM(G23:G36)</f>
         <v>1270</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="17" t="s">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G39" s="17" t="s">
+      <c r="G39" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="17" t="s">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="17">
-        <v>0</v>
-      </c>
-      <c r="G40" s="17">
+      <c r="F40" s="16">
+        <v>0</v>
+      </c>
+      <c r="G40" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="17" t="s">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="17">
-        <v>0</v>
-      </c>
-      <c r="G41" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="17" t="s">
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F42" s="17">
-        <v>0</v>
-      </c>
-      <c r="G42" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="17" t="s">
+      <c r="F42" s="16">
+        <v>0</v>
+      </c>
+      <c r="G42" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="17">
-        <v>0</v>
-      </c>
-      <c r="G43" s="17">
+      <c r="F43" s="16">
+        <v>0</v>
+      </c>
+      <c r="G43" s="16">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="17" t="s">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="17">
-        <v>0</v>
-      </c>
-      <c r="G44" s="17">
+      <c r="F44" s="16">
+        <v>0</v>
+      </c>
+      <c r="G44" s="16">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="17" t="s">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="17">
-        <v>0</v>
-      </c>
-      <c r="G45" s="17">
+      <c r="F45" s="16">
+        <v>0</v>
+      </c>
+      <c r="G45" s="16">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="17" t="s">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <v>36</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G46" s="16">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="17" t="s">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="17">
-        <v>0</v>
-      </c>
-      <c r="G47" s="17">
+      <c r="F47" s="16">
+        <v>0</v>
+      </c>
+      <c r="G47" s="16">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E48" s="17" t="s">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E48" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <v>60</v>
       </c>
-      <c r="G48" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="17" t="s">
+      <c r="G48" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="17">
-        <v>0</v>
-      </c>
-      <c r="G49" s="17">
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
         <v>793</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="17" t="s">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="17">
-        <v>0</v>
-      </c>
-      <c r="G50" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="17" t="s">
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <v>70</v>
       </c>
-      <c r="G51" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="17" t="s">
+      <c r="G51" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F52" s="17">
-        <v>0</v>
-      </c>
-      <c r="G52" s="17">
+      <c r="F52" s="16">
+        <v>0</v>
+      </c>
+      <c r="G52" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="17" t="s">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <v>108</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G53" s="16">
         <v>1221</v>
       </c>
     </row>
-    <row r="54" spans="5:7" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E54" s="15" t="s">
+    <row r="54" spans="5:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="14">
         <f>SUM(F40:F53)</f>
         <v>274</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="14">
         <f>SUM(G40:G53)</f>
         <v>2127</v>
       </c>
     </row>
-    <row r="55" spans="5:7" s="15" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="11" t="s">
         <v>54</v>
       </c>
@@ -2580,7 +2404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
         <v>8</v>
       </c>
@@ -2602,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="11" t="s">
         <v>9</v>
       </c>
@@ -2613,7 +2437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="11" t="s">
         <v>10</v>
       </c>
@@ -2624,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>11</v>
       </c>
@@ -2635,7 +2459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>12</v>
       </c>
@@ -2646,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="11" t="s">
         <v>13</v>
       </c>
@@ -2657,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="11" t="s">
         <v>14</v>
       </c>
@@ -2668,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="11" t="s">
         <v>15</v>
       </c>
@@ -2679,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E66" s="11" t="s">
         <v>16</v>
       </c>
@@ -2690,7 +2514,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E67" s="11" t="s">
         <v>17</v>
       </c>
@@ -2701,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E68" s="11" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E69" s="11" t="s">
         <v>19</v>
       </c>
@@ -2723,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E70" s="11" t="s">
         <v>20</v>
       </c>
@@ -2734,193 +2558,193 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="15" t="s">
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E71" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F71" s="14">
         <f>SUM(F57:F70)</f>
         <v>180</v>
       </c>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <f>SUM(G57:G70)</f>
         <v>1320</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="16" t="s">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="F73" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="G73" s="15" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="16" t="s">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F74" s="15">
         <v>230</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G74" s="15">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="16" t="s">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="16">
+      <c r="F75" s="15">
         <v>20</v>
       </c>
-      <c r="G75" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="16" t="s">
+      <c r="G75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F76" s="16">
+      <c r="F76" s="15">
         <v>20</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G76" s="15">
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="16" t="s">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="16">
-        <v>0</v>
-      </c>
-      <c r="G77" s="16">
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
         <v>210</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E78" s="16" t="s">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E78" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F78" s="16">
-        <v>0</v>
-      </c>
-      <c r="G78" s="16">
+      <c r="F78" s="15">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E79" s="16" t="s">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="16">
-        <v>0</v>
-      </c>
-      <c r="G79" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80" s="16" t="s">
+      <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F80" s="16">
+      <c r="F80" s="15">
         <v>200</v>
       </c>
-      <c r="G80" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E81" s="16" t="s">
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="16">
+      <c r="F81" s="15">
         <v>360</v>
       </c>
-      <c r="G81" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E82" s="16" t="s">
+      <c r="G81" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="16">
+      <c r="F82" s="15">
         <v>90</v>
       </c>
-      <c r="G82" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E83" s="16" t="s">
+      <c r="G82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E83" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="16">
-        <v>0</v>
-      </c>
-      <c r="G83" s="16">
+      <c r="F83" s="15">
+        <v>0</v>
+      </c>
+      <c r="G83" s="15">
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E84" s="16" t="s">
+    <row r="84" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E84" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="F84" s="16">
+      <c r="F84" s="15">
         <v>240</v>
       </c>
-      <c r="G84" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E85" s="16" t="s">
+      <c r="G84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E85" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F85" s="16">
+      <c r="F85" s="15">
         <v>620</v>
       </c>
-      <c r="G85" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E86" s="16" t="s">
+      <c r="G85" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E86" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="16">
-        <v>0</v>
-      </c>
-      <c r="G86" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E87" s="16" t="s">
+      <c r="F86" s="15">
+        <v>0</v>
+      </c>
+      <c r="G86" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E87" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F87" s="16">
-        <v>0</v>
-      </c>
-      <c r="G87" s="16">
+      <c r="F87" s="15">
+        <v>0</v>
+      </c>
+      <c r="G87" s="15">
         <v>2050</v>
       </c>
     </row>
-    <row r="88" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E88" s="16" t="s">
+    <row r="88" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E88" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F88" s="16">
+      <c r="F88" s="15">
         <f>SUM(F74:F87)</f>
         <v>1780</v>
       </c>
-      <c r="G88" s="16">
+      <c r="G88" s="15">
         <f>SUM(G74:G87)</f>
         <v>2820</v>
       </c>
@@ -2944,15 +2768,14 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="51.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="51.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="C1" s="66"/>
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
@@ -2961,21 +2784,21 @@
         <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="N1" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>0.84438518636459858</v>
       </c>
       <c r="E2" s="5"/>
@@ -2983,11 +2806,11 @@
       <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="59" t="s">
-        <v>114</v>
+      <c r="K2" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="M2">
         <f>G4*C$2+G20*C$3+G37*C$4+G50*C$5+G68*C$6</f>
@@ -2997,20 +2820,20 @@
         <f>M2*2</f>
         <v>5060.673770491815</v>
       </c>
-      <c r="O2" s="67">
+      <c r="O2" s="48">
         <f>N2/N$8</f>
         <v>0.31869224097483517</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>0.91767985937275853</v>
       </c>
       <c r="E3" s="5"/>
@@ -3018,9 +2841,9 @@
       <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="58"/>
       <c r="L3" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="M3">
         <f>G6*C$2+G22*C$3+G39*C$4+G52*C$5+G70*C$6</f>
@@ -3030,17 +2853,17 @@
         <f t="shared" ref="N3:N8" si="0">M3*2</f>
         <v>69.225373352055968</v>
       </c>
-      <c r="O3" s="67">
+      <c r="O3" s="48">
         <f t="shared" ref="O3:O8" si="1">N3/N$8</f>
         <v>4.3594174148361134E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A4" s="16"/>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>0.31466078796389074</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3050,11 +2873,11 @@
       <c r="G4" s="5">
         <v>90</v>
       </c>
-      <c r="K4" s="59" t="s">
-        <v>120</v>
+      <c r="K4" s="58" t="s">
+        <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="M4">
         <f>G8*C$2+G24*C$3+G41*C$4+G54*C$5+G72*C$6</f>
@@ -3064,17 +2887,17 @@
         <f t="shared" si="0"/>
         <v>463.77363701055583</v>
       </c>
-      <c r="O4" s="67">
+      <c r="O4" s="48">
         <f t="shared" si="1"/>
         <v>2.9205806654788564E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>0.91858919746223733</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3084,9 +2907,9 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="59"/>
+      <c r="K5" s="58"/>
       <c r="L5" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M5">
         <f>G9*C$2+G25*C$3+G42*C$4+G55*C$5+G73*C$6</f>
@@ -3096,17 +2919,17 @@
         <f t="shared" si="0"/>
         <v>1660.7415695920802</v>
       </c>
-      <c r="O5" s="67">
+      <c r="O5" s="48">
         <f t="shared" si="1"/>
         <v>0.10458398950342322</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
       <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>0.79502703329130908</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -3116,9 +2939,9 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="59"/>
+      <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="M6">
         <f>G10*C$2+G26*C$3+G43*C$4+G56*C$5+G74*C$6</f>
@@ -3128,12 +2951,12 @@
         <f t="shared" si="0"/>
         <v>3564.8756294798941</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="48">
         <f t="shared" si="1"/>
         <v>0.22449544362649429</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
@@ -3141,9 +2964,9 @@
       <c r="G7" s="5">
         <v>90</v>
       </c>
-      <c r="K7" s="59"/>
+      <c r="K7" s="58"/>
       <c r="L7" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="M7">
         <f>G11*C$2+G27*C$3+G44*C$4+G57*C$5+G75*C$6</f>
@@ -3153,23 +2976,23 @@
         <f t="shared" si="0"/>
         <v>5060.2110553417278</v>
       </c>
-      <c r="O7" s="67">
+      <c r="O7" s="48">
         <f t="shared" si="1"/>
         <v>0.31866310182562263</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E8" s="5" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="58" t="s">
+      <c r="K8" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="58"/>
+      <c r="L8" s="57"/>
       <c r="M8">
         <f>SUM(M2:M7)</f>
         <v>7939.7505176340646</v>
@@ -3178,31 +3001,31 @@
         <f t="shared" si="0"/>
         <v>15879.501035268129</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="39">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="42">
+        <v>83</v>
+      </c>
+      <c r="N9" s="40">
         <f>N8/forestarea!E2</f>
         <v>7.2686081289294446E-3</v>
       </c>
       <c r="O9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E10" s="5" t="s">
         <v>43</v>
       </c>
@@ -3211,7 +3034,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E11" s="5" t="s">
         <v>44</v>
       </c>
@@ -3220,19 +3043,19 @@
         <v>350</v>
       </c>
       <c r="L11" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" ht="18" x14ac:dyDescent="0.35">
       <c r="E13" s="5" t="s">
         <v>46</v>
       </c>
@@ -3240,32 +3063,32 @@
       <c r="G13" s="5">
         <v>780</v>
       </c>
-      <c r="L13" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="L13" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="41"/>
+      <c r="AD13" s="41"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="41"/>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E14" s="5" t="s">
         <v>47</v>
       </c>
@@ -3274,25 +3097,25 @@
         <v>870</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="25">
+      <c r="G15" s="23">
         <v>0.1</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="25">
+      <c r="G16" s="23">
         <v>0.9</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E17" s="5" t="s">
         <v>50</v>
       </c>
@@ -3301,244 +3124,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="14" t="s">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13">
         <v>780</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E21" s="14" t="s">
+    <row r="21" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E22" s="14" t="s">
+      <c r="F21" s="13"/>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E22" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E23" s="14" t="s">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>780</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="14" t="s">
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="14" t="s">
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="14" t="s">
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
         <v>560</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E27" s="14" t="s">
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E28" s="14" t="s">
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="F28" s="13"/>
+      <c r="G28" s="13">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="14" t="s">
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="F29" s="13"/>
+      <c r="G29" s="13">
         <v>1260</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E30" s="14" t="s">
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
         <v>2040</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E31" s="14" t="s">
+    <row r="31" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E31" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="26">
+      <c r="F31" s="13"/>
+      <c r="G31" s="24">
         <v>0.38</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E32" s="14" t="s">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="26">
+      <c r="F32" s="13"/>
+      <c r="G32" s="24">
         <v>0.62</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E33" s="14" t="s">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E34" s="14" t="s">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
         <v>1140</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="17" t="s">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16">
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="17" t="s">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="17" t="s">
+      <c r="F38" s="16"/>
+      <c r="G38" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17">
+      <c r="F39" s="16"/>
+      <c r="G39" s="16">
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16">
         <v>290</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="17" t="s">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17">
+      <c r="F41" s="16"/>
+      <c r="G41" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16">
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E43" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16">
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E44" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16">
         <v>950</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E45" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E45" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16">
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E46" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E46" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16">
         <v>2110</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E47" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E47" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16">
         <v>2400</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="11" t="s">
         <v>37</v>
       </c>
@@ -3547,7 +3370,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="11" t="s">
         <v>38</v>
       </c>
@@ -3556,7 +3379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="11" t="s">
         <v>39</v>
       </c>
@@ -3565,16 +3388,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="11" t="s">
         <v>41</v>
       </c>
@@ -3583,61 +3406,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="11" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="11" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11">
         <v>600</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11">
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11">
         <v>240</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="11" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11">
         <v>1250</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="11" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11">
         <v>1350</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E61" s="11" t="s">
         <v>48</v>
       </c>
@@ -3646,7 +3469,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E62" s="11" t="s">
         <v>49</v>
       </c>
@@ -3655,7 +3478,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E63" s="11" t="s">
         <v>50</v>
       </c>
@@ -3664,7 +3487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E64" s="11" t="s">
         <v>51</v>
       </c>
@@ -3673,143 +3496,143 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E65" s="11"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E68" s="16" t="s">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E68" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16">
+      <c r="F68" s="15"/>
+      <c r="G68" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E69" s="16" t="s">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E69" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E70" s="16" t="s">
+      <c r="F69" s="15"/>
+      <c r="G69" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E70" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E71" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16">
+      <c r="F70" s="15"/>
+      <c r="G70" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E71" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15">
         <v>2000</v>
       </c>
     </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E72" s="16" t="s">
+    <row r="72" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E72" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16">
+      <c r="F72" s="15"/>
+      <c r="G72" s="15">
         <v>230</v>
       </c>
     </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E73" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16">
+    <row r="73" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E73" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15">
         <v>950</v>
       </c>
     </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E74" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16">
+    <row r="74" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E74" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15">
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E75" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16">
+    <row r="75" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E75" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15">
         <v>1430</v>
       </c>
     </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E76" s="16" t="s">
+    <row r="76" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E76" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16">
+      <c r="F76" s="15"/>
+      <c r="G76" s="15">
         <v>230</v>
       </c>
     </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E77" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16">
+    <row r="77" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E77" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15">
         <v>3190</v>
       </c>
     </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E78" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16">
+    <row r="78" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E78" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15">
         <v>5190</v>
       </c>
     </row>
-    <row r="79" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E79" s="16" t="s">
+    <row r="79" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E79" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="80" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E80" s="16" t="s">
+      <c r="F79" s="15"/>
+      <c r="G79" s="15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E80" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="81" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E81" s="16" t="s">
+      <c r="F80" s="15"/>
+      <c r="G80" s="15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E81" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16">
+      <c r="F81" s="15"/>
+      <c r="G81" s="15">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E82" s="16" t="s">
+    <row r="82" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E82" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16">
+      <c r="F82" s="15"/>
+      <c r="G82" s="15">
         <v>2700</v>
       </c>
     </row>
@@ -3827,30 +3650,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708BCB78-0290-4D49-ADA7-6C0E5BAE7F26}">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -3858,7 +3681,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -3893,10 +3716,10 @@
         <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -3933,11 +3756,11 @@
       <c r="R3" t="s">
         <v>52</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="17">
         <v>0.84438518636459858</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -3974,11 +3797,11 @@
       <c r="R4" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="17">
         <v>0.91767985937275853</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -4015,11 +3838,11 @@
       <c r="R5" t="s">
         <v>57</v>
       </c>
-      <c r="S5" s="18">
+      <c r="S5" s="17">
         <v>0.31466078796389074</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -4056,11 +3879,11 @@
       <c r="R6" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="17">
         <v>0.91858919746223733</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -4097,16 +3920,16 @@
       <c r="R7" t="s">
         <v>59</v>
       </c>
-      <c r="S7" s="18">
+      <c r="S7" s="17">
         <v>0.79502703329130908</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>23</v>
       </c>
@@ -4117,406 +3940,406 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="J15" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="K15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="19">
-        <f>B3*$S$3</f>
+        <v>118</v>
+      </c>
+      <c r="B16" s="18">
+        <f t="shared" ref="B16:J16" si="0">B3*$S$3</f>
         <v>7683.9051959178469</v>
       </c>
-      <c r="C16" s="19">
-        <f>C3*$S$3</f>
+      <c r="C16" s="18">
+        <f t="shared" si="0"/>
         <v>1097.7007422739782</v>
       </c>
-      <c r="D16" s="19">
-        <f>D3*$S$3</f>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
         <v>2617.5940777302558</v>
       </c>
-      <c r="E16" s="19">
-        <f>E3*$S$3</f>
+      <c r="E16" s="18">
+        <f t="shared" si="0"/>
         <v>1097.7007422739782</v>
       </c>
-      <c r="F16" s="19">
-        <f>F3*$S$3</f>
+      <c r="F16" s="18">
+        <f t="shared" si="0"/>
         <v>7008.3970468261687</v>
       </c>
-      <c r="G16" s="19">
-        <f>G3*$S$3</f>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
         <v>2195.4014845479564</v>
       </c>
-      <c r="H16" s="19">
-        <f>H3*$S$3</f>
+      <c r="H16" s="18">
+        <f t="shared" si="0"/>
         <v>8359.4133450095251</v>
       </c>
-      <c r="I16" s="19">
-        <f>I3*$S$3</f>
+      <c r="I16" s="18">
+        <f t="shared" si="0"/>
         <v>29891.23559730679</v>
       </c>
-      <c r="J16" s="19">
-        <f>J3*$S$3</f>
+      <c r="J16" s="18">
+        <f t="shared" si="0"/>
         <v>10723.691866830402</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <f>SUM(B16:J16)</f>
         <v>70675.040098716898</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="19">
-        <f>B4*$S$4</f>
+        <v>119</v>
+      </c>
+      <c r="B17" s="18">
+        <f t="shared" ref="B17:J17" si="1">B4*$S$4</f>
         <v>79929.915751367269</v>
       </c>
-      <c r="C17" s="19">
-        <f>C4*$S$4</f>
+      <c r="C17" s="18">
+        <f t="shared" si="1"/>
         <v>3670.7194374910341</v>
       </c>
-      <c r="D17" s="19">
-        <f>D4*$S$4</f>
+      <c r="D17" s="18">
+        <f t="shared" si="1"/>
         <v>825.91187343548268</v>
       </c>
-      <c r="E17" s="19">
-        <f>E4*$S$4</f>
+      <c r="E17" s="18">
+        <f t="shared" si="1"/>
         <v>367.07194374910341</v>
       </c>
-      <c r="F17" s="19">
-        <f>F4*$S$4</f>
+      <c r="F17" s="18">
+        <f t="shared" si="1"/>
         <v>7616.742832793896</v>
       </c>
-      <c r="G17" s="19">
-        <f>G4*$S$4</f>
+      <c r="G17" s="18">
+        <f t="shared" si="1"/>
         <v>33587.082853042964</v>
       </c>
-      <c r="H17" s="19">
-        <f>H4*$S$4</f>
+      <c r="H17" s="18">
+        <f t="shared" si="1"/>
         <v>40744.985756150476</v>
       </c>
-      <c r="I17" s="19">
-        <f>I4*$S$4</f>
+      <c r="I17" s="18">
+        <f t="shared" si="1"/>
         <v>39368.465967091339</v>
       </c>
-      <c r="J17" s="19">
-        <f>J4*$S$4</f>
+      <c r="J17" s="18">
+        <f t="shared" si="1"/>
         <v>2844.8075640555517</v>
       </c>
-      <c r="K17" s="19">
-        <f t="shared" ref="K17:K20" si="0">SUM(B17:J17)</f>
+      <c r="K17" s="18">
+        <f t="shared" ref="K17:K20" si="2">SUM(B17:J17)</f>
         <v>208955.70397917711</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="19">
-        <f>B5*$S$5</f>
+        <v>120</v>
+      </c>
+      <c r="B18" s="18">
+        <f t="shared" ref="B18:J18" si="3">B5*$S$5</f>
         <v>7772.1214627081017</v>
       </c>
-      <c r="C18" s="19">
-        <f>C5*$S$5</f>
+      <c r="C18" s="18">
+        <f t="shared" si="3"/>
         <v>2013.8290429689007</v>
       </c>
-      <c r="D18" s="19">
-        <f>D5*$S$5</f>
+      <c r="D18" s="18">
+        <f t="shared" si="3"/>
         <v>3901.7937707522451</v>
       </c>
-      <c r="E18" s="19">
-        <f>E5*$S$5</f>
+      <c r="E18" s="18">
+        <f t="shared" si="3"/>
         <v>1164.2449154663957</v>
       </c>
-      <c r="F18" s="19">
-        <f>F5*$S$5</f>
+      <c r="F18" s="18">
+        <f t="shared" si="3"/>
         <v>5789.7584985355898</v>
       </c>
-      <c r="G18" s="19">
-        <f>G5*$S$5</f>
+      <c r="G18" s="18">
+        <f t="shared" si="3"/>
         <v>2328.4898309327914</v>
       </c>
-      <c r="H18" s="19">
-        <f>H5*$S$5</f>
+      <c r="H18" s="18">
+        <f t="shared" si="3"/>
         <v>7142.7998867803199</v>
       </c>
-      <c r="I18" s="19">
-        <f>I5*$S$5</f>
+      <c r="I18" s="18">
+        <f t="shared" si="3"/>
         <v>20924.942399598734</v>
       </c>
-      <c r="J18" s="19">
-        <f>J5*$S$5</f>
+      <c r="J18" s="18">
+        <f t="shared" si="3"/>
         <v>10006.213057251725</v>
       </c>
-      <c r="K18" s="19">
-        <f t="shared" si="0"/>
+      <c r="K18" s="18">
+        <f t="shared" si="2"/>
         <v>61044.192864994802</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>160</v>
-      </c>
-      <c r="B19" s="19">
-        <f>B6*$S$6</f>
+        <v>121</v>
+      </c>
+      <c r="B19" s="18">
+        <f t="shared" ref="B19:J19" si="4">B6*$S$6</f>
         <v>9645.1865733534923</v>
       </c>
-      <c r="C19" s="19">
-        <f>C6*$S$6</f>
+      <c r="C19" s="18">
+        <f t="shared" si="4"/>
         <v>4501.087067564963</v>
       </c>
-      <c r="D19" s="19">
-        <f>D6*$S$6</f>
+      <c r="D19" s="18">
+        <f t="shared" si="4"/>
         <v>12309.09524599398</v>
       </c>
-      <c r="E19" s="19">
-        <f>E6*$S$6</f>
+      <c r="E19" s="18">
+        <f t="shared" si="4"/>
         <v>2388.331913401817</v>
       </c>
-      <c r="F19" s="19">
-        <f>F6*$S$6</f>
+      <c r="F19" s="18">
+        <f t="shared" si="4"/>
         <v>11574.223888024191</v>
       </c>
-      <c r="G19" s="19">
-        <f>G6*$S$6</f>
+      <c r="G19" s="18">
+        <f t="shared" si="4"/>
         <v>3674.3567898489491</v>
       </c>
-      <c r="H19" s="19">
-        <f>H6*$S$6</f>
+      <c r="H19" s="18">
+        <f t="shared" si="4"/>
         <v>7532.4314191903459</v>
       </c>
-      <c r="I19" s="19">
-        <f>I6*$S$6</f>
+      <c r="I19" s="18">
+        <f t="shared" si="4"/>
         <v>31323.891633462292</v>
       </c>
-      <c r="J19" s="19">
-        <f>J6*$S$6</f>
+      <c r="J19" s="18">
+        <f t="shared" si="4"/>
         <v>14513.70931990335</v>
       </c>
-      <c r="K19" s="19">
-        <f t="shared" si="0"/>
+      <c r="K19" s="18">
+        <f t="shared" si="2"/>
         <v>97462.313850743391</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B20" s="19">
-        <f>B7*$S$7</f>
+        <v>122</v>
+      </c>
+      <c r="B20" s="18">
+        <f t="shared" ref="B20:J20" si="5">B7*$S$7</f>
         <v>87373.470958714868</v>
       </c>
-      <c r="C20" s="19">
-        <f>C7*$S$7</f>
+      <c r="C20" s="18">
+        <f t="shared" si="5"/>
         <v>16536.562292459228</v>
       </c>
-      <c r="D20" s="19">
-        <f>D7*$S$7</f>
+      <c r="D20" s="18">
+        <f t="shared" si="5"/>
         <v>2782.5946165195819</v>
       </c>
-      <c r="E20" s="19">
-        <f>E7*$S$7</f>
+      <c r="E20" s="18">
+        <f t="shared" si="5"/>
         <v>32993.62188158933</v>
       </c>
-      <c r="F20" s="19">
-        <f>F7*$S$7</f>
+      <c r="F20" s="18">
+        <f t="shared" si="5"/>
         <v>68292.822159723451</v>
       </c>
-      <c r="G20" s="19">
-        <f>G7*$S$7</f>
+      <c r="G20" s="18">
+        <f t="shared" si="5"/>
         <v>40625.881401185892</v>
       </c>
-      <c r="H20" s="19">
-        <f>H7*$S$7</f>
+      <c r="H20" s="18">
+        <f t="shared" si="5"/>
         <v>43487.978721034604</v>
       </c>
-      <c r="I20" s="19">
-        <f>I7*$S$7</f>
+      <c r="I20" s="18">
+        <f t="shared" si="5"/>
         <v>110985.77384746674</v>
       </c>
-      <c r="J20" s="19">
-        <f>J7*$S$7</f>
+      <c r="J20" s="18">
+        <f t="shared" si="5"/>
         <v>51915.26527392248</v>
       </c>
-      <c r="K20" s="19">
-        <f t="shared" si="0"/>
+      <c r="K20" s="18">
+        <f t="shared" si="2"/>
         <v>454993.97115261614</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B21" s="19">
+        <v>123</v>
+      </c>
+      <c r="B21" s="18">
         <f>SUM(B16:B20)</f>
         <v>192404.59994206158</v>
       </c>
-      <c r="C21" s="19">
-        <f t="shared" ref="C21:J21" si="1">SUM(C16:C20)</f>
+      <c r="C21" s="18">
+        <f t="shared" ref="C21:J21" si="6">SUM(C16:C20)</f>
         <v>27819.898582758105</v>
       </c>
-      <c r="D21" s="19">
-        <f t="shared" si="1"/>
+      <c r="D21" s="18">
+        <f t="shared" si="6"/>
         <v>22436.989584431543</v>
       </c>
-      <c r="E21" s="19">
-        <f t="shared" si="1"/>
+      <c r="E21" s="18">
+        <f t="shared" si="6"/>
         <v>38010.971396480621</v>
       </c>
-      <c r="F21" s="19">
-        <f t="shared" si="1"/>
+      <c r="F21" s="18">
+        <f t="shared" si="6"/>
         <v>100281.94442590329</v>
       </c>
-      <c r="G21" s="19">
-        <f t="shared" si="1"/>
+      <c r="G21" s="18">
+        <f t="shared" si="6"/>
         <v>82411.212359558558</v>
       </c>
-      <c r="H21" s="19">
-        <f t="shared" si="1"/>
+      <c r="H21" s="18">
+        <f t="shared" si="6"/>
         <v>107267.60912816526</v>
       </c>
-      <c r="I21" s="19">
-        <f t="shared" si="1"/>
+      <c r="I21" s="18">
+        <f t="shared" si="6"/>
         <v>232494.30944492589</v>
       </c>
-      <c r="J21" s="19">
-        <f t="shared" si="1"/>
+      <c r="J21" s="18">
+        <f t="shared" si="6"/>
         <v>90003.687081963508</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <f>SUM(K16:K20)</f>
         <v>893131.22194624832</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="18">
+      <c r="B22" s="17">
         <f>B21/$K$21</f>
         <v>0.21542702260792887</v>
       </c>
-      <c r="C22" s="18">
-        <f t="shared" ref="C22:K22" si="2">C21/$K$21</f>
+      <c r="C22" s="17">
+        <f t="shared" ref="C22:K22" si="7">C21/$K$21</f>
         <v>3.1148724732895299E-2</v>
       </c>
-      <c r="D22" s="18">
-        <f t="shared" si="2"/>
+      <c r="D22" s="17">
+        <f t="shared" si="7"/>
         <v>2.5121716756848388E-2</v>
       </c>
-      <c r="E22" s="18">
-        <f t="shared" si="2"/>
+      <c r="E22" s="17">
+        <f t="shared" si="7"/>
         <v>4.2559223619626468E-2</v>
       </c>
-      <c r="F22" s="18">
-        <f t="shared" si="2"/>
+      <c r="F22" s="17">
+        <f t="shared" si="7"/>
         <v>0.11228131092245995</v>
       </c>
-      <c r="G22" s="18">
-        <f t="shared" si="2"/>
+      <c r="G22" s="17">
+        <f t="shared" si="7"/>
         <v>9.2272233166335718E-2</v>
       </c>
-      <c r="H22" s="18">
-        <f t="shared" si="2"/>
+      <c r="H22" s="17">
+        <f t="shared" si="7"/>
         <v>0.12010285442089381</v>
       </c>
-      <c r="I22" s="18">
-        <f t="shared" si="2"/>
+      <c r="I22" s="17">
+        <f t="shared" si="7"/>
         <v>0.26031371844586371</v>
       </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
+      <c r="J22" s="17">
+        <f t="shared" si="7"/>
         <v>0.10077319532714783</v>
       </c>
-      <c r="K22" s="18">
-        <f t="shared" si="2"/>
+      <c r="K22" s="17">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="44">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42">
         <v>0.4</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="42">
         <v>0.45</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="42">
         <v>0.05</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="42">
         <v>0.1</v>
       </c>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
@@ -4525,28 +4348,28 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="K27" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="L27" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="M27" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="N27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B28">
         <f>$B21*B25</f>
         <v>76961.839976824631</v>
@@ -4568,31 +4391,31 @@
         <v>27819.898582758105</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:M28" si="3">D21</f>
+        <f t="shared" ref="G28:M28" si="8">D21</f>
         <v>22436.989584431543</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>38010.971396480621</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100281.94442590329</v>
       </c>
       <c r="J28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>82411.212359558558</v>
       </c>
       <c r="K28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>107267.60912816526</v>
       </c>
       <c r="L28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>232494.30944492589</v>
       </c>
       <c r="M28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>90003.687081963508</v>
       </c>
       <c r="N28">
@@ -4600,9 +4423,9 @@
         <v>893131.22194624832</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <v>335</v>
@@ -4641,52 +4464,52 @@
         <v>499.85714285714283</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B30">
         <f>B29*B28</f>
         <v>25782216.392236251</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:L30" si="4">C29*C28</f>
+        <f t="shared" ref="C30:L30" si="9">C29*C28</f>
         <v>35152320.409414656</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>4050116.8287803964</v>
       </c>
       <c r="E30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>9331623.0971899871</v>
       </c>
       <c r="F30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8318149.6762446733</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>8615804.0004217122</v>
       </c>
       <c r="H30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>13455883.874354141</v>
       </c>
       <c r="I30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>37505447.215287827</v>
       </c>
       <c r="J30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>41700073.453936629</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>59962593.502644382</v>
       </c>
-      <c r="L30" s="45">
-        <f t="shared" si="4"/>
+      <c r="L30" s="43">
+        <f t="shared" si="9"/>
         <v>138799102.73862076</v>
       </c>
       <c r="M30">
@@ -4698,93 +4521,93 @@
         <v>427662317.06053007</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="41">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="39">
         <f>B30/$N30</f>
         <v>6.0286388030271816E-2</v>
       </c>
-      <c r="C31" s="41">
-        <f t="shared" ref="C31:K31" si="5">C30/$N30</f>
+      <c r="C31" s="39">
+        <f t="shared" ref="C31:K31" si="10">C30/$N30</f>
         <v>8.2196440993512407E-2</v>
       </c>
-      <c r="D31" s="41">
-        <f t="shared" si="5"/>
+      <c r="D31" s="39">
+        <f t="shared" si="10"/>
         <v>9.4703617017703121E-3</v>
       </c>
-      <c r="E31" s="41">
-        <f t="shared" si="5"/>
+      <c r="E31" s="39">
+        <f t="shared" si="10"/>
         <v>2.1820073279613311E-2</v>
       </c>
-      <c r="F31" s="41">
-        <f t="shared" si="5"/>
+      <c r="F31" s="39">
+        <f t="shared" si="10"/>
         <v>1.945027500533171E-2</v>
       </c>
-      <c r="G31" s="41">
-        <f t="shared" si="5"/>
+      <c r="G31" s="39">
+        <f t="shared" si="10"/>
         <v>2.0146278165542129E-2</v>
       </c>
-      <c r="H31" s="41">
-        <f t="shared" si="5"/>
+      <c r="H31" s="39">
+        <f t="shared" si="10"/>
         <v>3.1463805291148984E-2</v>
       </c>
-      <c r="I31" s="41">
-        <f t="shared" si="5"/>
+      <c r="I31" s="39">
+        <f t="shared" si="10"/>
         <v>8.769874201934752E-2</v>
       </c>
-      <c r="J31" s="41">
-        <f t="shared" si="5"/>
+      <c r="J31" s="39">
+        <f t="shared" si="10"/>
         <v>9.7507009129435468E-2</v>
       </c>
-      <c r="K31" s="41">
-        <f t="shared" si="5"/>
+      <c r="K31" s="39">
+        <f t="shared" si="10"/>
         <v>0.14021014036211532</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <f>L30/$N30</f>
         <v>0.32455303448906753</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <f>M30/$N30</f>
         <v>0.10519745153284339</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="39">
         <f>N30/$N30</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M33" t="s">
-        <v>172</v>
-      </c>
-      <c r="N33" s="47">
+        <v>133</v>
+      </c>
+      <c r="N33" s="45">
         <f>forestarea!P8</f>
         <v>819394.66070283833</v>
       </c>
       <c r="O33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="N34" s="36">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="N34" s="34">
         <f>N33/1000000</f>
         <v>0.81939466070283828</v>
       </c>
       <c r="O34" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -4793,33 +4616,33 @@
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="K38" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s">
-        <v>154</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="R38" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="S38" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="B39">
         <v>25782.216392236252</v>
@@ -4858,9 +4681,9 @@
         <v>44988.98587139861</v>
       </c>
       <c r="R39" t="s">
-        <v>166</v>
-      </c>
-      <c r="S39" s="19">
+        <v>127</v>
+      </c>
+      <c r="S39" s="18">
         <v>42541.489595220075</v>
       </c>
       <c r="U39">
@@ -4900,7 +4723,7 @@
         <v>74233.279452418821</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B40">
         <f>B39*forestarea!$P7/forestarea!$P5</f>
         <v>23616.128072827982</v>
@@ -4950,594 +4773,144 @@
         <v>41209.244234158868</v>
       </c>
       <c r="R40" t="s">
-        <v>167</v>
-      </c>
-      <c r="S40" s="19">
+        <v>128</v>
+      </c>
+      <c r="S40" s="18">
         <v>58002.463798856035</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="48">
+        <v>137</v>
+      </c>
+      <c r="B41" s="46">
         <f>SUM(B39:B40)</f>
         <v>49398.344465064234</v>
       </c>
-      <c r="C41" s="48">
-        <f t="shared" ref="C41:M41" si="6">SUM(C39:C40)</f>
+      <c r="C41" s="46">
+        <f t="shared" ref="C41:M41" si="11">SUM(C39:C40)</f>
         <v>67351.324878859974</v>
       </c>
-      <c r="D41" s="48">
-        <f t="shared" si="6"/>
+      <c r="D41" s="46">
+        <f t="shared" si="11"/>
         <v>7759.9638133552389</v>
       </c>
-      <c r="E41" s="48">
-        <f t="shared" si="6"/>
+      <c r="E41" s="46">
+        <f t="shared" si="11"/>
         <v>17879.251541459817</v>
       </c>
-      <c r="F41" s="48">
-        <f t="shared" si="6"/>
+      <c r="F41" s="46">
+        <f t="shared" si="11"/>
         <v>15937.451488570674</v>
       </c>
-      <c r="G41" s="48">
-        <f t="shared" si="6"/>
+      <c r="G41" s="46">
+        <f t="shared" si="11"/>
         <v>16507.752761879394</v>
       </c>
-      <c r="H41" s="48">
-        <f t="shared" si="6"/>
+      <c r="H41" s="46">
+        <f t="shared" si="11"/>
         <v>25781.274060961186</v>
       </c>
-      <c r="I41" s="48">
-        <f t="shared" si="6"/>
+      <c r="I41" s="46">
+        <f t="shared" si="11"/>
         <v>71859.88096100901</v>
       </c>
-      <c r="J41" s="48">
-        <f t="shared" si="6"/>
+      <c r="J41" s="46">
+        <f t="shared" si="11"/>
         <v>79896.722661762338</v>
       </c>
-      <c r="K41" s="48">
-        <f t="shared" si="6"/>
+      <c r="K41" s="46">
+        <f t="shared" si="11"/>
         <v>114887.44038911282</v>
       </c>
-      <c r="L41" s="48">
-        <f t="shared" si="6"/>
+      <c r="L41" s="46">
+        <f t="shared" si="11"/>
         <v>265937.0235752461</v>
       </c>
-      <c r="M41" s="48">
-        <f t="shared" si="6"/>
+      <c r="M41" s="46">
+        <f t="shared" si="11"/>
         <v>86198.230105557479</v>
       </c>
       <c r="R41" t="s">
-        <v>168</v>
-      </c>
-      <c r="S41" s="19">
+        <v>129</v>
+      </c>
+      <c r="S41" s="18">
         <v>6682.8235520849448</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R42" t="s">
-        <v>169</v>
-      </c>
-      <c r="S42" s="19">
+        <v>130</v>
+      </c>
+      <c r="S42" s="18">
         <v>15397.479443046073</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R43" t="s">
         <v>24</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S43" s="18">
         <v>13725.215571846846</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R44" t="s">
         <v>25</v>
       </c>
-      <c r="S44" s="19">
+      <c r="S44" s="18">
         <v>14216.354818461921</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
-        <v>151</v>
-      </c>
-      <c r="S45" s="19">
+        <v>112</v>
+      </c>
+      <c r="S45" s="18">
         <v>22202.642904188098</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R46" t="s">
         <v>27</v>
       </c>
-      <c r="S46" s="19">
+      <c r="S46" s="18">
         <v>61885.199014686106</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R47" t="s">
-        <v>152</v>
-      </c>
-      <c r="S47" s="19">
+        <v>113</v>
+      </c>
+      <c r="S47" s="18">
         <v>68806.467759488442</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R48" t="s">
-        <v>153</v>
-      </c>
-      <c r="S48" s="19">
+        <v>114</v>
+      </c>
+      <c r="S48" s="18">
         <v>98940.215565148377</v>
       </c>
     </row>
-    <row r="49" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:19" x14ac:dyDescent="0.3">
       <c r="R49" t="s">
-        <v>154</v>
-      </c>
-      <c r="S49" s="19">
+        <v>115</v>
+      </c>
+      <c r="S49" s="18">
         <v>229023.00155850814</v>
       </c>
     </row>
-    <row r="50" spans="18:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:19" x14ac:dyDescent="0.3">
       <c r="R50" t="s">
-        <v>155</v>
-      </c>
-      <c r="S50" s="19">
+        <v>116</v>
+      </c>
+      <c r="S50" s="18">
         <v>74233.279452418821</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B85BE15D-9863-48A0-9563-D17D14271651}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="45.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2">
-        <v>338.9</v>
-      </c>
-      <c r="D2">
-        <v>104.6</v>
-      </c>
-      <c r="E2">
-        <v>443.5</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="22">
-        <f>E2/E$16</f>
-        <v>5.275679533694165E-2</v>
-      </c>
-      <c r="H2" s="64">
-        <f>SUM(G2:G8)</f>
-        <v>0.30239695473740558</v>
-      </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3">
-        <v>115.4</v>
-      </c>
-      <c r="D3">
-        <v>45.9</v>
-      </c>
-      <c r="E3">
-        <v>161.30000000000001</v>
-      </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="22">
-        <f t="shared" ref="G3:G14" si="0">E3/E$16</f>
-        <v>1.918753345625409E-2</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>399.8</v>
-      </c>
-      <c r="D4">
-        <v>31.9</v>
-      </c>
-      <c r="E4">
-        <v>431.7</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="22">
-        <f t="shared" si="0"/>
-        <v>5.1353119609825727E-2</v>
-      </c>
-      <c r="H4" s="65"/>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5">
-        <v>579.1</v>
-      </c>
-      <c r="D5">
-        <v>5.3</v>
-      </c>
-      <c r="E5">
-        <v>584.5</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="22">
-        <f t="shared" si="0"/>
-        <v>6.9529530720275984E-2</v>
-      </c>
-      <c r="H5" s="65"/>
-      <c r="I5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6">
-        <v>144.1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>144.1</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="22">
-        <f t="shared" si="0"/>
-        <v>1.7141497650627491E-2</v>
-      </c>
-      <c r="H6" s="65"/>
-      <c r="I6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7">
-        <v>190.8</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>190.8</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="22">
-        <f t="shared" si="0"/>
-        <v>2.2696722774043897E-2</v>
-      </c>
-      <c r="H7" s="65"/>
-      <c r="I7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8">
-        <v>586.20000000000005</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>586.20000000000005</v>
-      </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="22">
-        <f t="shared" si="0"/>
-        <v>6.973175518943675E-2</v>
-      </c>
-      <c r="H8" s="65"/>
-      <c r="I8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9">
-        <v>15.9</v>
-      </c>
-      <c r="D9">
-        <v>23.9</v>
-      </c>
-      <c r="E9">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="F9" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G9" s="22">
-        <f t="shared" si="0"/>
-        <v>4.7344316897638726E-3</v>
-      </c>
-      <c r="H9" s="60">
-        <f>SUM(G9:G10)</f>
-        <v>7.958127639326712E-3</v>
-      </c>
-      <c r="I9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D10">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E10">
-        <v>27.1</v>
-      </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="22">
-        <f t="shared" si="0"/>
-        <v>3.2236959495628385E-3</v>
-      </c>
-      <c r="H10" s="65"/>
-      <c r="I10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>207.7</v>
-      </c>
-      <c r="E11">
-        <v>207.7</v>
-      </c>
-      <c r="F11" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="22">
-        <f t="shared" si="0"/>
-        <v>2.470707190864212E-2</v>
-      </c>
-      <c r="H11" s="60">
-        <f>SUM(G11:G15)</f>
-        <v>0.68964491762326774</v>
-      </c>
-      <c r="I11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>33.6</v>
-      </c>
-      <c r="E12">
-        <v>33.6</v>
-      </c>
-      <c r="F12" s="59"/>
-      <c r="G12" s="22">
-        <f t="shared" si="0"/>
-        <v>3.996907155177541E-3</v>
-      </c>
-      <c r="H12" s="60"/>
-      <c r="I12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="E13">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="22">
-        <f t="shared" si="0"/>
-        <v>2.3910069589008509E-3</v>
-      </c>
-      <c r="H13" s="60"/>
-      <c r="I13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14">
-        <v>27.5</v>
-      </c>
-      <c r="D14">
-        <v>1102.0999999999999</v>
-      </c>
-      <c r="E14">
-        <v>1129.5999999999999</v>
-      </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="22">
-        <f t="shared" si="0"/>
-        <v>0.1343722119788259</v>
-      </c>
-      <c r="H14" s="60"/>
-      <c r="I14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>4372.5</v>
-      </c>
-      <c r="E15">
-        <f>C15+D15</f>
-        <v>4406.5</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="22">
-        <f>E15/E$16</f>
-        <v>0.52417771962172133</v>
-      </c>
-      <c r="H15" s="60"/>
-      <c r="I15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E16">
-        <f>SUM(E2:E15)</f>
-        <v>8406.5</v>
-      </c>
-      <c r="G16" s="22">
-        <f>E16/E$16</f>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="F11:F15"/>
-    <mergeCell ref="H11:H15"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:H10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Harvest/Harvest_temperate-2a-3b.xlsx
+++ b/Harvest/Harvest_temperate-2a-3b.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14183\OneDrive\Documents\GitHub\Landis-II_ECCC\Harvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D40C3E-D6F3-476B-A5A1-668AF7F85EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0B5CE-298F-4A3F-9583-2EE57C26A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="138">
   <si>
     <t>Grands types de forêt *</t>
   </si>
@@ -214,12 +214,6 @@
     <t>Coupes partielles de peuplements de feuillus tolérants et de pins</t>
   </si>
   <si>
-    <t>MU06151</t>
-  </si>
-  <si>
-    <t>MU06152</t>
-  </si>
-  <si>
     <t>Grands types de forêt</t>
   </si>
   <si>
@@ -229,15 +223,6 @@
     <t>Total des coupes partielles (ha/an)</t>
   </si>
   <si>
-    <t>MU06452</t>
-  </si>
-  <si>
-    <t>MU07251</t>
-  </si>
-  <si>
-    <t>MU07351</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -410,21 +395,6 @@
   </si>
   <si>
     <t>tot</t>
-  </si>
-  <si>
-    <t>061-51</t>
-  </si>
-  <si>
-    <t>064-52</t>
-  </si>
-  <si>
-    <t>064-71</t>
-  </si>
-  <si>
-    <t>072-51</t>
-  </si>
-  <si>
-    <t>073-51</t>
   </si>
   <si>
     <t>all</t>
@@ -709,7 +679,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -824,6 +794,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1108,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B7D1C2-DBB2-45B3-A780-8E753B63C53F}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1129,39 +1103,39 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D1" s="26" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="M1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="O1" t="s">
         <v>87</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="K1" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B2" s="29">
         <v>75511.182994000003</v>
@@ -1197,12 +1171,12 @@
         <v>0.42768924088834975</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="29">
         <v>170327.54854600001</v>
@@ -1237,7 +1211,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B4" s="29">
         <v>1111155.802159</v>
@@ -1261,7 +1235,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P4" s="44">
         <f>AAC!N30</f>
@@ -1270,7 +1244,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B5" s="29">
         <v>139049.017073</v>
@@ -1291,7 +1265,7 @@
         <v>5.8466037471813517E-2</v>
       </c>
       <c r="O5" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="P5" s="18">
         <f>L2</f>
@@ -1300,7 +1274,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B6" s="29">
         <v>405805.89945899998</v>
@@ -1321,7 +1295,7 @@
         <v>0.14767761031918455</v>
       </c>
       <c r="O6" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="P6">
         <f>P7*P4/P5</f>
@@ -1331,7 +1305,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C7" s="35"/>
       <c r="O7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="P7" s="18">
         <f>M2</f>
@@ -1341,27 +1315,27 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C8" s="36"/>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8">
         <v>349547</v>
       </c>
       <c r="O8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="P8" s="44">
         <f>(P4+P6)/1000</f>
         <v>819394.66070283833</v>
       </c>
       <c r="Q8" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="R8" s="47">
         <f>P8/1000000</f>
         <v>0.81939466070283828</v>
       </c>
       <c r="S8" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -1369,7 +1343,7 @@
       <c r="B9" s="38"/>
       <c r="C9" s="36"/>
       <c r="O9" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="P9" s="34">
         <f>P8/E2</f>
@@ -1406,7 +1380,7 @@
   <dimension ref="A1:P88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B4" sqref="B4:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1415,7 +1389,7 @@
     <col min="5" max="5" width="32.6640625" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="11" max="11" width="37.88671875" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1428,7 +1402,7 @@
       </c>
       <c r="G1" s="56"/>
       <c r="K1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1441,24 +1415,24 @@
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E3" s="54"/>
       <c r="F3" s="3" t="s">
@@ -1493,8 +1467,8 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" t="s">
-        <v>52</v>
+      <c r="B4" s="59">
+        <v>6151</v>
       </c>
       <c r="C4" s="17">
         <v>0.84438518636459858</v>
@@ -1534,8 +1508,8 @@
     </row>
     <row r="5" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" t="s">
-        <v>53</v>
+      <c r="B5" s="59">
+        <v>6452</v>
       </c>
       <c r="C5" s="17">
         <v>0.91767985937275853</v>
@@ -1575,8 +1549,8 @@
     </row>
     <row r="6" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
-      <c r="B6" t="s">
-        <v>57</v>
+      <c r="B6" s="59">
+        <v>6471</v>
       </c>
       <c r="C6" s="17">
         <v>0.31466078796389074</v>
@@ -1616,8 +1590,8 @@
     </row>
     <row r="7" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" t="s">
-        <v>58</v>
+      <c r="B7" s="59">
+        <v>7251</v>
       </c>
       <c r="C7" s="17">
         <v>0.91858919746223733</v>
@@ -1657,8 +1631,8 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
-      <c r="B8" t="s">
-        <v>59</v>
+      <c r="B8" s="59">
+        <v>7351</v>
       </c>
       <c r="C8" s="17">
         <v>0.79502703329130908</v>
@@ -1979,7 +1953,7 @@
         <v>640</v>
       </c>
       <c r="K17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L17" s="18">
         <f>SUM(L3:L16)</f>
@@ -1996,7 +1970,7 @@
     </row>
     <row r="18" spans="5:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E18" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F18" s="14">
         <f>SUM(F4:F17)</f>
@@ -2203,7 +2177,7 @@
     </row>
     <row r="37" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E37" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F37" s="14">
         <f>SUM(F23:F36)</f>
@@ -2216,13 +2190,13 @@
     </row>
     <row r="39" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E39" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="F39" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" s="16" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
@@ -2381,7 +2355,7 @@
     </row>
     <row r="54" spans="5:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="E54" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F54" s="14">
         <f>SUM(F40:F53)</f>
@@ -2395,13 +2369,13 @@
     <row r="55" spans="5:7" s="14" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.3">
@@ -2560,7 +2534,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="14" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F71" s="14">
         <f>SUM(F57:F70)</f>
@@ -2573,13 +2547,13 @@
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.3">
@@ -2738,7 +2712,7 @@
     </row>
     <row r="88" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E88" s="15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F88" s="15">
         <f>SUM(F74:F87)</f>
@@ -2765,7 +2739,7 @@
   <dimension ref="A1:AG82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2784,10 +2758,10 @@
         <v>34</v>
       </c>
       <c r="M1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s">
         <v>6</v>
@@ -2795,8 +2769,8 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" t="s">
-        <v>52</v>
+      <c r="B2" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="C2" s="17">
         <v>0.84438518636459858</v>
@@ -2807,10 +2781,10 @@
         <v>35</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="M2">
         <f>G4*C$2+G20*C$3+G37*C$4+G50*C$5+G68*C$6</f>
@@ -2825,13 +2799,13 @@
         <v>0.31869224097483517</v>
       </c>
       <c r="P2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" t="s">
-        <v>53</v>
+      <c r="B3" s="60" t="s">
+        <v>90</v>
       </c>
       <c r="C3" s="17">
         <v>0.91767985937275853</v>
@@ -2843,7 +2817,7 @@
       </c>
       <c r="K3" s="58"/>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M3">
         <f>G6*C$2+G22*C$3+G39*C$4+G52*C$5+G70*C$6</f>
@@ -2860,8 +2834,8 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" t="s">
-        <v>57</v>
+      <c r="B4" s="60" t="s">
+        <v>91</v>
       </c>
       <c r="C4" s="17">
         <v>0.31466078796389074</v>
@@ -2874,10 +2848,10 @@
         <v>90</v>
       </c>
       <c r="K4" s="58" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <f>G8*C$2+G24*C$3+G41*C$4+G54*C$5+G72*C$6</f>
@@ -2894,8 +2868,8 @@
     </row>
     <row r="5" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" t="s">
-        <v>58</v>
+      <c r="B5" s="60" t="s">
+        <v>92</v>
       </c>
       <c r="C5" s="17">
         <v>0.91858919746223733</v>
@@ -2909,7 +2883,7 @@
       </c>
       <c r="K5" s="58"/>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M5">
         <f>G9*C$2+G25*C$3+G42*C$4+G55*C$5+G73*C$6</f>
@@ -2926,8 +2900,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" t="s">
-        <v>59</v>
+      <c r="B6" s="60" t="s">
+        <v>93</v>
       </c>
       <c r="C6" s="17">
         <v>0.79502703329130908</v>
@@ -2941,7 +2915,7 @@
       </c>
       <c r="K6" s="58"/>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="M6">
         <f>G10*C$2+G26*C$3+G43*C$4+G56*C$5+G74*C$6</f>
@@ -2966,7 +2940,7 @@
       </c>
       <c r="K7" s="58"/>
       <c r="L7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M7">
         <f>G11*C$2+G27*C$3+G44*C$4+G57*C$5+G75*C$6</f>
@@ -2983,14 +2957,14 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E8" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="K8" s="57" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L8" s="57"/>
       <c r="M8">
@@ -3008,21 +2982,21 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E9" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5">
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="N9" s="40">
         <f>N8/forestarea!E2</f>
         <v>7.2686081289294446E-3</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -3043,12 +3017,12 @@
         <v>350</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="E12" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5">
@@ -3064,7 +3038,7 @@
         <v>780</v>
       </c>
       <c r="L13" s="41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="M13" s="41"/>
       <c r="N13" s="41"/>
@@ -3291,7 +3265,7 @@
     </row>
     <row r="40" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E40" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F40" s="16"/>
       <c r="G40" s="16">
@@ -3309,7 +3283,7 @@
     </row>
     <row r="42" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E42" s="16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F42" s="16"/>
       <c r="G42" s="16">
@@ -3318,7 +3292,7 @@
     </row>
     <row r="43" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E43" s="16" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
@@ -3327,7 +3301,7 @@
     </row>
     <row r="44" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E44" s="16" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F44" s="16"/>
       <c r="G44" s="16">
@@ -3336,7 +3310,7 @@
     </row>
     <row r="45" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E45" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -3345,7 +3319,7 @@
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E46" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -3354,7 +3328,7 @@
     </row>
     <row r="47" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E47" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -3390,7 +3364,7 @@
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="11">
@@ -3408,7 +3382,7 @@
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11">
@@ -3417,7 +3391,7 @@
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E56" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11">
@@ -3426,7 +3400,7 @@
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E57" s="11" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="11">
@@ -3435,7 +3409,7 @@
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E58" s="11" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11">
@@ -3444,7 +3418,7 @@
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E59" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="11">
@@ -3453,7 +3427,7 @@
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E60" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11">
@@ -3530,7 +3504,7 @@
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E71" s="15" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15">
@@ -3548,7 +3522,7 @@
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E73" s="15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15">
@@ -3557,7 +3531,7 @@
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E74" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15">
@@ -3566,7 +3540,7 @@
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E75" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F75" s="15"/>
       <c r="G75" s="15">
@@ -3584,7 +3558,7 @@
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E77" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F77" s="15"/>
       <c r="G77" s="15">
@@ -3593,7 +3567,7 @@
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E78" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F78" s="15"/>
       <c r="G78" s="15">
@@ -3606,7 +3580,7 @@
       </c>
       <c r="F79" s="15"/>
       <c r="G79" s="15" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="5:7" x14ac:dyDescent="0.3">
@@ -3615,7 +3589,7 @@
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="5:7" x14ac:dyDescent="0.3">
@@ -3651,7 +3625,7 @@
   <dimension ref="A1:AF50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="R3" sqref="R3:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3716,12 +3690,12 @@
         <v>4</v>
       </c>
       <c r="S2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>52</v>
+      <c r="A3">
+        <v>6151</v>
       </c>
       <c r="B3">
         <v>9100</v>
@@ -3753,16 +3727,16 @@
       <c r="K3">
         <v>83700</v>
       </c>
-      <c r="R3" t="s">
-        <v>52</v>
+      <c r="R3">
+        <v>6151</v>
       </c>
       <c r="S3" s="17">
         <v>0.84438518636459858</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>53</v>
+      <c r="A4">
+        <v>6452</v>
       </c>
       <c r="B4">
         <v>87100</v>
@@ -3794,16 +3768,16 @@
       <c r="K4">
         <v>227700</v>
       </c>
-      <c r="R4" t="s">
-        <v>53</v>
+      <c r="R4">
+        <v>6452</v>
       </c>
       <c r="S4" s="17">
         <v>0.91767985937275853</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>57</v>
+      <c r="A5">
+        <v>6471</v>
       </c>
       <c r="B5">
         <v>24700</v>
@@ -3835,16 +3809,16 @@
       <c r="K5">
         <v>194000</v>
       </c>
-      <c r="R5" t="s">
-        <v>57</v>
+      <c r="R5">
+        <v>6471</v>
       </c>
       <c r="S5" s="17">
         <v>0.31466078796389074</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>58</v>
+      <c r="A6">
+        <v>7251</v>
       </c>
       <c r="B6">
         <v>10500</v>
@@ -3876,16 +3850,16 @@
       <c r="K6">
         <v>106100</v>
       </c>
-      <c r="R6" t="s">
-        <v>58</v>
+      <c r="R6">
+        <v>7251</v>
       </c>
       <c r="S6" s="17">
         <v>0.91858919746223733</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>59</v>
+      <c r="A7">
+        <v>7351</v>
       </c>
       <c r="B7">
         <v>109900</v>
@@ -3917,8 +3891,8 @@
       <c r="K7">
         <v>572300</v>
       </c>
-      <c r="R7" t="s">
-        <v>59</v>
+      <c r="R7">
+        <v>7351</v>
       </c>
       <c r="S7" s="17">
         <v>0.79502703329130908</v>
@@ -3926,7 +3900,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -3940,30 +3914,30 @@
         <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J15" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="K15" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>118</v>
+      <c r="A16">
+        <v>6151</v>
       </c>
       <c r="B16" s="18">
         <f t="shared" ref="B16:J16" si="0">B3*$S$3</f>
@@ -4007,8 +3981,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>119</v>
+      <c r="A17">
+        <v>6452</v>
       </c>
       <c r="B17" s="18">
         <f t="shared" ref="B17:J17" si="1">B4*$S$4</f>
@@ -4052,8 +4026,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>120</v>
+      <c r="A18">
+        <v>6471</v>
       </c>
       <c r="B18" s="18">
         <f t="shared" ref="B18:J18" si="3">B5*$S$5</f>
@@ -4097,8 +4071,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>121</v>
+      <c r="A19">
+        <v>7251</v>
       </c>
       <c r="B19" s="18">
         <f t="shared" ref="B19:J19" si="4">B6*$S$6</f>
@@ -4142,8 +4116,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>122</v>
+      <c r="A20">
+        <v>7351</v>
       </c>
       <c r="B20" s="18">
         <f t="shared" ref="B20:J20" si="5">B7*$S$7</f>
@@ -4188,7 +4162,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B21" s="18">
         <f>SUM(B16:B20)</f>
@@ -4290,19 +4264,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="B24" s="42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
@@ -4330,16 +4304,16 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
@@ -4348,25 +4322,25 @@
         <v>25</v>
       </c>
       <c r="H27" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
         <v>27</v>
       </c>
       <c r="J27" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="N27" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -4425,7 +4399,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B29">
         <v>335</v>
@@ -4466,7 +4440,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B30">
         <f>B29*B28</f>
@@ -4577,14 +4551,14 @@
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="M33" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="N33" s="45">
         <f>forestarea!P8</f>
         <v>819394.66070283833</v>
       </c>
       <c r="O33" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.3">
@@ -4593,21 +4567,21 @@
         <v>0.81939466070283828</v>
       </c>
       <c r="O34" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
         <v>24</v>
@@ -4616,33 +4590,33 @@
         <v>25</v>
       </c>
       <c r="H38" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I38" t="s">
         <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R38" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S38" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B39">
         <v>25782.216392236252</v>
@@ -4681,7 +4655,7 @@
         <v>44988.98587139861</v>
       </c>
       <c r="R39" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S39" s="18">
         <v>42541.489595220075</v>
@@ -4773,7 +4747,7 @@
         <v>41209.244234158868</v>
       </c>
       <c r="R40" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="S40" s="18">
         <v>58002.463798856035</v>
@@ -4781,7 +4755,7 @@
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="B41" s="46">
         <f>SUM(B39:B40)</f>
@@ -4832,7 +4806,7 @@
         <v>86198.230105557479</v>
       </c>
       <c r="R41" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="S41" s="18">
         <v>6682.8235520849448</v>
@@ -4840,7 +4814,7 @@
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R42" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="S42" s="18">
         <v>15397.479443046073</v>
@@ -4864,7 +4838,7 @@
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="S45" s="18">
         <v>22202.642904188098</v>
@@ -4880,7 +4854,7 @@
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R47" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S47" s="18">
         <v>68806.467759488442</v>
@@ -4888,7 +4862,7 @@
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R48" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="S48" s="18">
         <v>98940.215565148377</v>
@@ -4896,7 +4870,7 @@
     </row>
     <row r="49" spans="18:19" x14ac:dyDescent="0.3">
       <c r="R49" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="S49" s="18">
         <v>229023.00155850814</v>
@@ -4904,7 +4878,7 @@
     </row>
     <row r="50" spans="18:19" x14ac:dyDescent="0.3">
       <c r="R50" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="S50" s="18">
         <v>74233.279452418821</v>

--- a/Harvest/Harvest_temperate-2a-3b.xlsx
+++ b/Harvest/Harvest_temperate-2a-3b.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14183\OneDrive\Documents\GitHub\Landis-II_ECCC\Harvest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C0B5CE-298F-4A3F-9583-2EE57C26A7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF21CF67-370C-41C9-97DC-47C104E1A67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="forestarea" sheetId="11" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
   <si>
     <t>Grands types de forêt *</t>
   </si>
@@ -470,6 +470,21 @@
   </si>
   <si>
     <t xml:space="preserve">those rates are the most important info to know to calibrate biomass harvest </t>
+  </si>
+  <si>
+    <t>SeedT</t>
+  </si>
+  <si>
+    <t>RSH</t>
+  </si>
+  <si>
+    <t>IRSHP</t>
+  </si>
+  <si>
+    <t>IRSHS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black spruce </t>
   </si>
 </sst>
 </file>
@@ -679,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -765,6 +780,9 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -794,10 +812,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1082,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B7D1C2-DBB2-45B3-A780-8E753B63C53F}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1377,10 +1391,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3620D4-86F8-463C-98E8-A97B6434A518}">
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1393,20 +1407,20 @@
     <col min="14" max="14" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E1" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="55" t="s">
+    <row r="1" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="57"/>
       <c r="K1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="53"/>
+    <row r="2" spans="1:22" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="54"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1429,12 +1443,30 @@
       <c r="P2" s="19" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="V2" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>7</v>
+        <v>142</v>
       </c>
       <c r="L3" s="20">
         <f>(F4*$C$4+F23*$C$5+F40*$C$6+F57*$C$7+F74*$C$8)</f>
@@ -1464,10 +1496,28 @@
         <f>M3/N3</f>
         <v>0.23592463079705991</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>1000</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
-      <c r="B4" s="59">
+      <c r="B4">
         <v>6151</v>
       </c>
       <c r="C4" s="17">
@@ -1506,9 +1556,9 @@
         <v>0.28452820627173925</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="13"/>
-      <c r="B5" s="59">
+      <c r="B5">
         <v>6452</v>
       </c>
       <c r="C5" s="17">
@@ -1547,9 +1597,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16"/>
-      <c r="B6" s="59">
+      <c r="B6">
         <v>6471</v>
       </c>
       <c r="C6" s="17">
@@ -1588,9 +1638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
-      <c r="B7" s="59">
+      <c r="B7">
         <v>7251</v>
       </c>
       <c r="C7" s="17">
@@ -1629,9 +1679,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="15"/>
-      <c r="B8" s="59">
+      <c r="B8">
         <v>7351</v>
       </c>
       <c r="C8" s="17">
@@ -1670,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1704,7 +1754,7 @@
         <v>7.397216626919173E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
@@ -1738,7 +1788,7 @@
         <v>9.1520679734180543E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1772,7 +1822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1856,7 @@
         <v>0.97561312477770812</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1840,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
@@ -1874,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E15" s="4" t="s">
         <v>18</v>
       </c>
@@ -1908,7 +1958,7 @@
         <v>0.32283143750569898</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:22" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E16" s="4" t="s">
         <v>19</v>
       </c>
@@ -1995,16 +2045,16 @@
     </row>
     <row r="19" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E20" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="51" t="s">
+      <c r="E20" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="5:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E21" s="49"/>
+      <c r="E21" s="50"/>
       <c r="F21" s="6" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +2063,7 @@
       </c>
     </row>
     <row r="22" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E22" s="50"/>
+      <c r="E22" s="51"/>
       <c r="F22" s="7" t="s">
         <v>5</v>
       </c>
@@ -2739,7 +2789,7 @@
   <dimension ref="A1:AG82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2769,7 +2819,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="17">
@@ -2780,7 +2830,7 @@
       <c r="G2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="K2" s="59" t="s">
         <v>71</v>
       </c>
       <c r="L2" t="s">
@@ -2804,7 +2854,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C3" s="17">
@@ -2815,7 +2865,7 @@
       <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="58"/>
+      <c r="K3" s="59"/>
       <c r="L3" t="s">
         <v>70</v>
       </c>
@@ -2834,7 +2884,7 @@
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="16"/>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="49" t="s">
         <v>91</v>
       </c>
       <c r="C4" s="17">
@@ -2847,7 +2897,7 @@
       <c r="G4" s="5">
         <v>90</v>
       </c>
-      <c r="K4" s="58" t="s">
+      <c r="K4" s="59" t="s">
         <v>77</v>
       </c>
       <c r="L4" t="s">
@@ -2868,7 +2918,7 @@
     </row>
     <row r="5" spans="1:33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="17">
@@ -2881,7 +2931,7 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" s="58"/>
+      <c r="K5" s="59"/>
       <c r="L5" t="s">
         <v>72</v>
       </c>
@@ -2900,7 +2950,7 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="49" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="17">
@@ -2913,7 +2963,7 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="58"/>
+      <c r="K6" s="59"/>
       <c r="L6" t="s">
         <v>74</v>
       </c>
@@ -2938,7 +2988,7 @@
       <c r="G7" s="5">
         <v>90</v>
       </c>
-      <c r="K7" s="58"/>
+      <c r="K7" s="59"/>
       <c r="L7" t="s">
         <v>75</v>
       </c>
@@ -2963,10 +3013,10 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="L8" s="57"/>
+      <c r="L8" s="58"/>
       <c r="M8">
         <f>SUM(M2:M7)</f>
         <v>7939.7505176340646</v>
@@ -3624,8 +3674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708BCB78-0290-4D49-ADA7-6C0E5BAE7F26}">
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3940,11 +3990,11 @@
         <v>6151</v>
       </c>
       <c r="B16" s="18">
-        <f t="shared" ref="B16:J16" si="0">B3*$S$3</f>
+        <f>B3*$S$3</f>
         <v>7683.9051959178469</v>
       </c>
       <c r="C16" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B16:J16" si="0">C3*$S$3</f>
         <v>1097.7007422739782</v>
       </c>
       <c r="D16" s="18">
